--- a/src/main/resources/testData2.xlsx
+++ b/src/main/resources/testData2.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Root\PerfectoCI\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5640"/>
   </bookViews>
@@ -11,8 +16,7 @@
     <sheet name="items" sheetId="1" r:id="rId2"/>
     <sheet name="addresses" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="G1:U16"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Item</t>
   </si>
@@ -93,13 +97,13 @@
     <t>browserName</t>
   </si>
   <si>
-    <t>PerfectoMobile</t>
-  </si>
-  <si>
-    <t>iPhone-6</t>
-  </si>
-  <si>
-    <t>mobileOS</t>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
 </sst>
 </file>
@@ -444,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +463,8 @@
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -497,19 +503,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="E2" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -554,7 +561,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
     </row>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -605,7 +611,6 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
